--- a/CustomLocalization/Localization/RogueTech/RU/DarkAge HeavyMetal and Unique/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/DarkAge HeavyMetal and Unique/LocalizationDef.xlsx
@@ -532,8 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="4">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -840,699 +839,700 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
+    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="3" customFormat="1">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1">
-      <c r="A7" s="4" t="s">
+    <row r="7" s="3" customFormat="1">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1">
-      <c r="A10" s="4" t="s">
+    <row r="10" s="3" customFormat="1">
+      <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1">
-      <c r="A13" s="4" t="s">
+    <row r="13" s="3" customFormat="1">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1">
-      <c r="A16" s="4" t="s">
+    <row r="16" s="3" customFormat="1">
+      <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" s="4" customFormat="1">
-      <c r="A19" s="4" t="s">
+    <row r="19" s="3" customFormat="1">
+      <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" s="4" customFormat="1">
-      <c r="A22" s="4" t="s">
+    <row r="22" s="3" customFormat="1">
+      <c r="A22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" s="4" customFormat="1">
-      <c r="A25" s="4" t="s">
+    <row r="25" s="3" customFormat="1">
+      <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" s="4" customFormat="1">
-      <c r="A28" s="4" t="s">
+    <row r="28" s="3" customFormat="1">
+      <c r="A28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" s="4" customFormat="1">
-      <c r="A31" s="4" t="s">
+    <row r="31" s="3" customFormat="1">
+      <c r="A31" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" s="4" customFormat="1">
-      <c r="A34" s="4" t="s">
+    <row r="34" s="3" customFormat="1">
+      <c r="A34" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" s="4" customFormat="1">
-      <c r="A37" s="4" t="s">
+    <row r="37" s="3" customFormat="1">
+      <c r="A37" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" s="4" customFormat="1">
-      <c r="A40" s="4" t="s">
+    <row r="40" s="3" customFormat="1">
+      <c r="A40" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" s="4" customFormat="1">
-      <c r="A43" s="4" t="s">
+    <row r="43" s="3" customFormat="1">
+      <c r="A43" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" s="4" customFormat="1">
-      <c r="A46" s="4" t="s">
+    <row r="46" s="3" customFormat="1">
+      <c r="A46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="47" s="4" customFormat="1">
-      <c r="A47" s="4" t="s">
+    <row r="47" s="3" customFormat="1">
+      <c r="A47" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" s="4" customFormat="1">
-      <c r="A48" s="4" t="s">
+    <row r="48" s="3" customFormat="1">
+      <c r="A48" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" s="4" customFormat="1">
-      <c r="A49" s="4" t="s">
+    <row r="49" s="3" customFormat="1">
+      <c r="A49" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" s="4" customFormat="1">
-      <c r="A50" s="4" t="s">
+    <row r="50" s="3" customFormat="1">
+      <c r="A50" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" s="4" customFormat="1">
-      <c r="A51" s="4" t="s">
+    <row r="51" s="3" customFormat="1">
+      <c r="A51" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="52" s="4" customFormat="1">
-      <c r="A52" s="4" t="s">
+    <row r="52" s="3" customFormat="1">
+      <c r="A52" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" s="4" customFormat="1">
-      <c r="A53" s="4" t="s">
+    <row r="53" s="3" customFormat="1">
+      <c r="A53" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" s="4" customFormat="1">
-      <c r="A54" s="4" t="s">
+    <row r="54" s="3" customFormat="1">
+      <c r="A54" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="55" s="4" customFormat="1">
-      <c r="A55" s="4" t="s">
+    <row r="55" s="3" customFormat="1">
+      <c r="A55" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56" s="4" customFormat="1">
-      <c r="A56" s="4" t="s">
+    <row r="56" s="3" customFormat="1">
+      <c r="A56" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" s="4" customFormat="1">
-      <c r="A57" s="4" t="s">
+    <row r="57" s="3" customFormat="1">
+      <c r="A57" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" s="4" customFormat="1">
-      <c r="A58" s="4" t="s">
+    <row r="58" s="3" customFormat="1">
+      <c r="A58" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="59" s="4" customFormat="1">
-      <c r="A59" s="4" t="s">
+    <row r="59" s="3" customFormat="1">
+      <c r="A59" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="60" s="4" customFormat="1">
-      <c r="A60" s="4" t="s">
+    <row r="60" s="3" customFormat="1">
+      <c r="A60" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" s="4" customFormat="1">
-      <c r="A61" s="4" t="s">
+    <row r="61" s="3" customFormat="1">
+      <c r="A61" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="63" s="4" customFormat="1">
-      <c r="A63" s="4" t="s">
+    <row r="63" s="3" customFormat="1">
+      <c r="A63" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>110</v>
       </c>
     </row>

--- a/CustomLocalization/Localization/RogueTech/RU/DarkAge HeavyMetal and Unique/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/DarkAge HeavyMetal and Unique/LocalizationDef.xlsx
@@ -532,7 +532,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -839,700 +840,699 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
-    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="4" customFormat="1">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="4" customFormat="1">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1">
-      <c r="A10" s="3" t="s">
+    <row r="10" s="4" customFormat="1">
+      <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1">
-      <c r="A13" s="3" t="s">
+    <row r="13" s="4" customFormat="1">
+      <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1">
-      <c r="A16" s="3" t="s">
+    <row r="16" s="4" customFormat="1">
+      <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1">
-      <c r="A19" s="3" t="s">
+    <row r="19" s="4" customFormat="1">
+      <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1">
-      <c r="A22" s="3" t="s">
+    <row r="22" s="4" customFormat="1">
+      <c r="A22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" s="3" customFormat="1">
-      <c r="A25" s="3" t="s">
+    <row r="25" s="4" customFormat="1">
+      <c r="A25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1">
-      <c r="A28" s="3" t="s">
+    <row r="28" s="4" customFormat="1">
+      <c r="A28" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1">
-      <c r="A31" s="3" t="s">
+    <row r="31" s="4" customFormat="1">
+      <c r="A31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" s="3" customFormat="1">
-      <c r="A34" s="3" t="s">
+    <row r="34" s="4" customFormat="1">
+      <c r="A34" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" s="3" customFormat="1">
-      <c r="A37" s="3" t="s">
+    <row r="37" s="4" customFormat="1">
+      <c r="A37" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" s="3" customFormat="1">
-      <c r="A40" s="3" t="s">
+    <row r="40" s="4" customFormat="1">
+      <c r="A40" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" s="3" customFormat="1">
-      <c r="A43" s="3" t="s">
+    <row r="43" s="4" customFormat="1">
+      <c r="A43" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" s="3" customFormat="1">
-      <c r="A46" s="3" t="s">
+    <row r="46" s="4" customFormat="1">
+      <c r="A46" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="47" s="3" customFormat="1">
-      <c r="A47" s="3" t="s">
+    <row r="47" s="4" customFormat="1">
+      <c r="A47" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" s="3" customFormat="1">
-      <c r="A48" s="3" t="s">
+    <row r="48" s="4" customFormat="1">
+      <c r="A48" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" s="3" customFormat="1">
-      <c r="A49" s="3" t="s">
+    <row r="49" s="4" customFormat="1">
+      <c r="A49" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" s="3" customFormat="1">
-      <c r="A50" s="3" t="s">
+    <row r="50" s="4" customFormat="1">
+      <c r="A50" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" s="3" customFormat="1">
-      <c r="A51" s="3" t="s">
+    <row r="51" s="4" customFormat="1">
+      <c r="A51" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="52" s="3" customFormat="1">
-      <c r="A52" s="3" t="s">
+    <row r="52" s="4" customFormat="1">
+      <c r="A52" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" s="3" customFormat="1">
-      <c r="A53" s="3" t="s">
+    <row r="53" s="4" customFormat="1">
+      <c r="A53" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" s="3" customFormat="1">
-      <c r="A54" s="3" t="s">
+    <row r="54" s="4" customFormat="1">
+      <c r="A54" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="55" s="3" customFormat="1">
-      <c r="A55" s="3" t="s">
+    <row r="55" s="4" customFormat="1">
+      <c r="A55" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56" s="3" customFormat="1">
-      <c r="A56" s="3" t="s">
+    <row r="56" s="4" customFormat="1">
+      <c r="A56" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" s="3" customFormat="1">
-      <c r="A57" s="3" t="s">
+    <row r="57" s="4" customFormat="1">
+      <c r="A57" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" s="3" customFormat="1">
-      <c r="A58" s="3" t="s">
+    <row r="58" s="4" customFormat="1">
+      <c r="A58" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="59" s="3" customFormat="1">
-      <c r="A59" s="3" t="s">
+    <row r="59" s="4" customFormat="1">
+      <c r="A59" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="60" s="3" customFormat="1">
-      <c r="A60" s="3" t="s">
+    <row r="60" s="4" customFormat="1">
+      <c r="A60" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" s="3" customFormat="1">
-      <c r="A61" s="3" t="s">
+    <row r="61" s="4" customFormat="1">
+      <c r="A61" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="63" s="3" customFormat="1">
-      <c r="A63" s="3" t="s">
+    <row r="63" s="4" customFormat="1">
+      <c r="A63" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="4" t="s">
         <v>110</v>
       </c>
     </row>

--- a/CustomLocalization/Localization/RogueTech/RU/DarkAge HeavyMetal and Unique/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/DarkAge HeavyMetal and Unique/LocalizationDef.xlsx
@@ -20,17 +20,13 @@
   </si>
   <si>
     <t xml:space="preserve">The Gùn is a moderately fast light OmniMech which was designed by the Capellan Confederation as an Infantry Support 'Mech. Rebuilding several 'liberated' chassis from border conflicts was this upgraded with a more formidable engine and Stealth systems to infiltrate deep into capellan Territory.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Short&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.02&lt;/color&gt;&lt;/b&gt;
----
-The Gùn is a moderately fast light OmniMech which was designed by the Capellan Confederation as an Infantry Support 'Mech. Rebuilding several 'liberated' chassis from border conflicts was this upgraded with a more formidable engine and Stealth systems to infiltrate deep into capellan Territory.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Short&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.92&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">The Gùn is a moderately fast light OmniMech which was designed by the Capellan Confederation as an Infantry Support 'Mech. Rebuilding several 'liberated' chassis from border conflicts was this upgraded with a more formidable engine and Stealth systems to infiltrate deep into capellan Territory.
- &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Short&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.02&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Short&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.02&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_gun_GN-2OR.StockRole</t>
@@ -49,17 +45,13 @@
   </si>
   <si>
     <t xml:space="preserve">Malvina Hazen was part of the group assigned to designing the Jadehawk, while the Khan was a galaxy commander one she shared an especially close bond with Khan Hazen. This mech was her last gift to her brother.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Distracting&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.23&lt;/color&gt;&lt;/b&gt;
----
-Malvina Hazen was part of the group assigned to designing the Jadehawk, while the Khan was a galaxy commander one she shared an especially close bond with Khan Hazen. This mech was her last gift to her brother.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Distracting&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.23&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Malvina Hazen was part of the group assigned to designing the Jadehawk, while the Khan was a galaxy commander one she shared an especially close bond with Khan Hazen. This mech was her last gift to her brother.
- &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Distracting&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.23&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Distracting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.23&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_hazen_JHK-HZN.StockRole</t>
@@ -81,17 +73,13 @@
   </si>
   <si>
     <t xml:space="preserve">A custom made adaptation of the JHK-03 ordered by Celina Santos. It replaces the the SRM-6s with an Advanced Tactical Missile System and an LB-X Autocannon/5. It was the first Jade Hawk to become (in)famous in the Inner Sphere.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Distracting&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.22&lt;/color&gt;&lt;/b&gt;
----
-A custom made adaptation of the JHK-03 ordered by Celina Santos. It replaces the the SRM-6s with an Advanced Tactical Missile System and an LB-X Autocannon/5. It was the first Jade Hawk to become (in)famous in the Inner Sphere.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Distracting&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.22&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">A custom made adaptation of the JHK-03 ordered by Celina Santos. It replaces the the SRM-6s with an Advanced Tactical Missile System and an LB-X Autocannon/5. It was the first Jade Hawk to become (in)famous in the Inner Sphere.
- &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Distracting&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.22&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Distracting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.22&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_jade_hawk_JHK-03_Milagro.StockRole</t>
@@ -107,17 +95,13 @@
   </si>
   <si>
     <t xml:space="preserve">Used by Republic of the Sphere Knight Eve Kincaid during the invasion of Liao in 3134, this Mad Cat III was equipped with an Extended-range PPC and two ER Medium Lasers controlled by a Targeting Computer. The Missile Launchers were downgraded to LRM-10 racks, but augmented with Artemis IV FCS.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Communications&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;
----
-Used by Republic of the Sphere Knight Eve Kincaid during the invasion of Liao in 3134, this Mad Cat III was equipped with an Extended-range PPC and two ER Medium Lasers controlled by a Targeting Computer. The Missile Launchers were downgraded to LRM-10 racks, but augmented with Artemis IV FCS.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Communications&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Used by Republic of the Sphere Knight Eve Kincaid during the invasion of Liao in 3134, this Mad Cat III was equipped with an Extended-range PPC and two ER Medium Lasers controlled by a Targeting Computer. The Missile Launchers were downgraded to LRM-10 racks, but augmented with Artemis IV FCS.
- &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_mad_cat_iii_eve.StockRole</t>
@@ -139,17 +123,13 @@
   </si>
   <si>
     <t xml:space="preserve">This variant of the Omen was introduced during the Dark Age in 3141. It carries the LB 10-X and AMS of the original design, but only carries one Medium Pulse Laser and one ER Medium Laser. The ATM-12 has been downrated to an ATM-9 with two tons of ammunition, and three heat sinks were removed. With the weight saved by removing these weapons and equipment, engineers added a HarJel III system to each torso.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Protected Actuators&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.21&lt;/color&gt;&lt;/b&gt;
----
-This variant of the Omen was introduced during the Dark Age in 3141. It carries the LB 10-X and AMS of the original design, but only carries one Medium Pulse Laser and one ER Medium Laser. The ATM-12 has been downrated to an ATM-9 with two tons of ammunition, and three heat sinks were removed. With the weight saved by removing these weapons and equipment, engineers added a HarJel III system to each torso.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Protected Actuators&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.21&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">This variant of the Omen was introduced during the Dark Age in 3141. It carries the LB 10-X and AMS of the original design, but only carries one Medium Pulse Laser and one ER Medium Laser. The ATM-12 has been downrated to an ATM-9 with two tons of ammunition, and three heat sinks were removed. With the weight saved by removing these weapons and equipment, engineers added a HarJel III system to each torso.
- &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Protected Actuators&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.21&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Protected Actuators&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.21&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_omen_OM-2.StockRole</t>
@@ -168,17 +148,13 @@
   </si>
   <si>
     <t xml:space="preserve">This model is produced by both Oriente Weapon Works and Kallon Industries using the latest innovations to move the Rifleman towards a more prominent role again. Compared to its brother design, the RFL-7N2, the RFL-7N focuses more on direct energy weapons over ballistics. This model is produced by both Oriente Weapon Works and Kallon Industries, although not in as great numbers as the -7N2.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;
----
-This model is produced by both Oriente Weapon Works and Kallon Industries using the latest innovations to move the Rifleman towards a more prominent role again. Compared to its brother design, the RFL-7N2, the RFL-7N focuses more on direct energy weapons over ballistics. This model is produced by both Oriente Weapon Works and Kallon Industries, although not in as great numbers as the -7N2.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">This model is produced by both Oriente Weapon Works and Kallon Industries using the latest innovations to move the Rifleman towards a more prominent role again. Compared to its brother design, the RFL-7N2, the RFL-7N focuses more on direct energy weapons over ballistics. This model is produced by both Oriente Weapon Works and Kallon Industries, although not in as great numbers as the -7N2.
- &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rifleman_RFL-7N.StockRole</t>
@@ -200,17 +176,13 @@
   </si>
   <si>
     <t xml:space="preserve">A collaboration between Oriente Weapon Works and Kallon of Talon, the RFL-7N2 carries two LB/X 10 Autocannons, 2 Light PPCs and 2 ER Medium Lasers. To fit the weaponary the 'Mech uses a 240 XL engin, but does come with CASE II to protect the volatile ammunition bins.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;
----
-A collaboration between Oriente Weapon Works and Kallon of Talon, the RFL-7N2 carries two LB/X 10 Autocannons, 2 Light PPCs and 2 ER Medium Lasers. To fit the weaponary the 'Mech uses a 240 XL engin, but does come with CASE II to protect the volatile ammunition bins.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">A collaboration between Oriente Weapon Works and Kallon of Talon, the RFL-7N2 carries two LB/X 10 Autocannons, 2 Light PPCs and 2 ER Medium Lasers. To fit the weaponary the 'Mech uses a 240 XL engin, but does come with CASE II to protect the volatile ammunition bins.
- &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rifleman_RFL-7N2.StockRole</t>
@@ -226,17 +198,13 @@
   </si>
   <si>
     <t xml:space="preserve">The Rifleman C 3 are completely constructed from scratch, unlike the Rifleman C retrofit of the RFL-3N, which pair integrated cutting-edge technology with classic styling. With its dual Ultra AC5 and twin Extended-Range Large Lasers main armament, the C 3 is perfect for garrisoning duties. The combination of Ferro-Fibrous armor with CASE II and Endo Steel structure also allows adding two Extended-Range Medium Lasers for close range protection and a total of 14 heatsinks.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;
----
-The Rifleman C 3 are completely constructed from scratch, unlike the Rifleman C retrofit of the RFL-3N, which pair integrated cutting-edge technology with classic styling. With its dual Ultra AC5 and twin Extended-Range Large Lasers main armament, the C 3 is perfect for garrisoning duties. The combination of Ferro-Fibrous armor with CASE II and Endo Steel structure also allows adding two Extended-Range Medium Lasers for close range protection and a total of 14 heatsinks.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">The Rifleman C 3 are completely constructed from scratch, unlike the Rifleman C retrofit of the RFL-3N, which pair integrated cutting-edge technology with classic styling. With its dual Ultra AC5 and twin Extended-Range Large Lasers main armament, the C 3 is perfect for garrisoning duties. The combination of Ferro-Fibrous armor with CASE II and Endo Steel structure also allows adding two Extended-Range Medium Lasers for close range protection and a total of 14 heatsinks.
- &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rifleman_RFL-C3.StockRole</t>
@@ -258,17 +226,13 @@
   </si>
   <si>
     <t xml:space="preserve">With the success of the latest generation of Mad Cats and Vultures, it’s only logical that other beloved OmniMechs get their due. Dubbed the Ryoken III, this beast seems an odd choice for the Wolves over one of their homegrown designs, and suggests a possible Snow Raven link.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Stable&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;
----
-With the success of the latest generation of Mad Cats and Vultures, it’s only logical that other beloved OmniMechs get their due. Dubbed the Ryoken III, this beast seems an odd choice for the Wolves over one of their homegrown designs, and suggests a possible Snow Raven link.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Stable&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">With the success of the latest generation of Mad Cats and Vultures, it’s only logical that other beloved OmniMechs get their due. Dubbed the Ryoken III, this beast seems an odd choice for the Wolves over one of their homegrown designs, and suggests a possible Snow Raven link.
- &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_skinwalker_RIII-XP.StockRole</t>
@@ -326,17 +290,13 @@
   </si>
   <si>
     <t xml:space="preserve">With only a pair of Thunderbolt-5 launchers and a retractable blade for weapons, “Aladdin” isn’t a flashy fighter. Its Angel ECM and stealth armor give it the ability to hide in built up terrain, and thus surprise strikes are its best hope.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.02&lt;/color&gt;&lt;/b&gt;
----
-With only a pair of Thunderbolt-5 launchers and a retractable blade for weapons, “Aladdin” isn’t a flashy fighter. Its Angel ECM and stealth armor give it the ability to hide in built up terrain, and thus surprise strikes are its best hope.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.02&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">With only a pair of Thunderbolt-5 launchers and a retractable blade for weapons, “Aladdin” isn’t a flashy fighter. Its Angel ECM and stealth armor give it the ability to hide in built up terrain, and thus surprise strikes are its best hope.
- &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.02&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.02&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_vulcan_VL-VT-5ML.StockRole</t>
@@ -355,17 +315,13 @@
   </si>
   <si>
     <t xml:space="preserve">Using space savings of the XL Engine and strength of its endo-steel construction, the Warwolf is able to carry 30 tons worth of Omni pod weapons and equipment.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Medium&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.12&lt;/color&gt;&lt;/b&gt;
----
-Using space savings of the XL Engine and strength of its endo-steel construction, the Warwolf is able to carry 30 tons worth of Omni pod weapons and equipment.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Medium&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Using space savings of the XL Engine and strength of its endo-steel construction, the Warwolf is able to carry 30 tons worth of Omni pod weapons and equipment.
- &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Medium&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.12&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Medium&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_warwolf_WW1-PRIME.StockRole</t>
@@ -381,17 +337,13 @@
   </si>
   <si>
     <t xml:space="preserve">The Gùn is a moderately fast light OmniMech which was designed by the Capellan Confederation as an Infantry Support 'Mech. Designed with 10 tons of pod space, the default configuration of the Gùn features a combination of anti-infantry and anti-vehicle energy weaponry. The 'Mech also features a Small Cockpit and an XL Gyro.
- &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Short&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.02&lt;/color&gt;&lt;/b&gt;
----
-The Gùn is a moderately fast light OmniMech which was designed by the Capellan Confederation as an Infantry Support 'Mech. Designed with 10 tons of pod space, the default configuration of the Gùn features a combination of anti-infantry and anti-vehicle energy weaponry. The 'Mech also features a Small Cockpit and an XL Gyro.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Short&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 0.92&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">The Gùn is a moderately fast light OmniMech which was designed by the Capellan Confederation as an Infantry Support 'Mech. Designed with 10 tons of pod space, the default configuration of the Gùn features a combination of anti-infantry and anti-vehicle energy weaponry. The 'Mech also features a Small Cockpit and an XL Gyro.
- &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Short&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.02&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Short&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.02&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_hazen_JHK-HZN.Description.Details</t>
@@ -439,21 +391,7 @@
     <t>vehiclechassisdef_POLLUX_II_ADA.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">The Pollux ADA Heavy Tank was a dedicated anti-aircraft artillery vehicle designed to serve as a component of the Terran Hegemony's planetary defense forces. Armed with a Sniper Artillery Piece and a LB 10-X Autocannon, the Pollux carried 3 tons of ammunition for each weapon.A turret mounted Medium Laser and forward facing Small Pulse Laser gave the tank some token means of close-in self-defense. Also protecting the tank is 6 tons of Ferro-Fibrous armor giving its hull modest strength ward off light attacks as its escorts take out would be attackers. Powering the vehicle is a GM 225-rated standard Fusion Engine, giving the vehicle modest speeds to keep with typical vehicle formation and heavy 'Mechs
-  &lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous
- &lt;b&gt;Structure:&lt;/b&gt; Structure
- &lt;b&gt;Values A S &lt;/b&gt;
- &lt;b&gt;Front&lt;/b&gt; 170 40
- &lt;b&gt;Left&lt;/b&gt; 132 40
- &lt;b&gt;Right&lt;/b&gt; 132 40
- &lt;b&gt;Rear&lt;/b&gt; 116 40
- &lt;b&gt;Turret&lt;/b&gt; 165 40
- &lt;b&gt;Total&lt;/b&gt; 715 200
----
-The Pollux ADA Heavy Tank was a dedicated anti-aircraft artillery vehicle designed to serve as a component of the Terran Hegemony's planetary defense forces. Armed with a Sniper Artillery Piece and a LB 10-X Autocannon, the Pollux carried 3 tons of ammunition for each weapon.A turret mounted Medium Laser and forward facing Small Pulse Laser gave the tank some token means of close-in self-defense. Also protecting the tank is 6 tons of Ferro-Fibrous armor giving its hull modest strength ward off light attacks as its escorts take out would be attackers. Powering the vehicle is a GM 225-rated standard Fusion Engine, giving the vehicle modest speeds to keep with typical vehicle formation and heavy 'Mechs
+    <t xml:space="preserve">The Pollux ADA Heavy Tank was a dedicated anti-aircraft artillery vehicle designed to serve as a component of the Terran Hegemony's planetary defense forces. Armed with a Sniper Artillery Piece and a LB 10-X Autocannon, the Pollux carried 3 tons of ammunition for each weapon.A turret mounted Medium Laser and forward facing Small Pulse Laser gave the tank some token means of close-in self-defense. Also protecting the tank is 6 tons of Ferro-Fibrous armor giving its hull modest strength ward off light attacks as its escorts take out would be attackers. Powering the vehicle is a GM 225-rated standard Fusion Engine, giving the vehicle modest speeds to keep with typical vehicle formation and heavy 'Mechs
  &lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
  &lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
  &lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
@@ -470,18 +408,18 @@
   </si>
   <si>
     <t xml:space="preserve">The Pollux ADA Heavy Tank was a dedicated anti-aircraft artillery vehicle designed to serve as a component of the Terran Hegemony's planetary defense forces. Armed with a Sniper Artillery Piece and a LB 10-X Autocannon, the Pollux carried 3 tons of ammunition for each weapon.A turret mounted Medium Laser and forward facing Small Pulse Laser gave the tank some token means of close-in self-defense. Also protecting the tank is 6 tons of Ferro-Fibrous armor giving its hull modest strength ward off light attacks as its escorts take out would be attackers. Powering the vehicle is a GM 225-rated standard Fusion Engine, giving the vehicle modest speeds to keep with typical vehicle formation and heavy 'Mechs
-  &lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-  &lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
- &lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous
- &lt;b&gt;Structure:&lt;/b&gt; Structure
- &lt;b&gt;Values A S &lt;/b&gt;
- &lt;b&gt;Front&lt;/b&gt; 170 40
- &lt;b&gt;Left&lt;/b&gt; 132 40
- &lt;b&gt;Right&lt;/b&gt; 132 40
- &lt;b&gt;Rear&lt;/b&gt; 116 40
- &lt;b&gt;Turret&lt;/b&gt; 165 40
- &lt;b&gt;Total&lt;/b&gt; 715 200</t>
+&lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous
+&lt;b&gt;Structure:&lt;/b&gt; Structure
+&lt;b&gt;Values A S &lt;/b&gt;
+&lt;b&gt;Front&lt;/b&gt; 170 40
+&lt;b&gt;Left&lt;/b&gt; 132 40
+&lt;b&gt;Right&lt;/b&gt; 132 40
+&lt;b&gt;Rear&lt;/b&gt; 116 40
+&lt;b&gt;Turret&lt;/b&gt; 165 40
+&lt;b&gt;Total&lt;/b&gt; 715 200</t>
   </si>
   <si>
     <t>vehiclechassisdef_POLLUX_II_ADA.YangsThoughts</t>
@@ -507,17 +445,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000" tint="0"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -536,7 +469,7 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -831,27 +764,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C63"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
-    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="3" width="66.140625" customWidth="1" style="2"/>
+    <col min="4" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -864,6 +800,9 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -875,16 +814,22 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" s="3" customFormat="1">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -897,6 +842,9 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -908,16 +856,22 @@
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" s="3" customFormat="1">
-      <c r="A7" s="3" t="s">
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -930,6 +884,9 @@
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E8" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -941,16 +898,22 @@
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" s="3" customFormat="1">
-      <c r="A10" s="3" t="s">
+      <c r="E9" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -963,6 +926,9 @@
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="E11" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -974,16 +940,22 @@
       <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" s="3" customFormat="1">
-      <c r="A13" s="3" t="s">
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="E13" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -996,6 +968,9 @@
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="E14" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -1007,16 +982,22 @@
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" s="3" customFormat="1">
-      <c r="A16" s="3" t="s">
+      <c r="E15" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="E16" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -1029,6 +1010,9 @@
       <c r="C17" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E17" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -1040,16 +1024,22 @@
       <c r="C18" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" s="3" customFormat="1">
-      <c r="A19" s="3" t="s">
+      <c r="E18" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>46</v>
+      </c>
+      <c r="E19" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="20">
@@ -1062,6 +1052,9 @@
       <c r="C20" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E20" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -1073,16 +1066,22 @@
       <c r="C21" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" s="3" customFormat="1">
-      <c r="A22" s="3" t="s">
+      <c r="E21" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>52</v>
+      </c>
+      <c r="E22" s="2">
+        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -1095,6 +1094,9 @@
       <c r="C23" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="E23" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -1106,16 +1108,22 @@
       <c r="C24" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" s="3" customFormat="1">
-      <c r="A25" s="3" t="s">
+      <c r="E24" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>60</v>
+      </c>
+      <c r="E25" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="26">
@@ -1128,6 +1136,9 @@
       <c r="C26" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="E26" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -1139,16 +1150,22 @@
       <c r="C27" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="28" s="3" customFormat="1">
-      <c r="A28" s="3" t="s">
+      <c r="E27" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>60</v>
+      </c>
+      <c r="E28" s="2">
+        <v>28</v>
       </c>
     </row>
     <row r="29">
@@ -1161,6 +1178,9 @@
       <c r="C29" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="E29" s="2">
+        <v>29</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -1172,16 +1192,22 @@
       <c r="C30" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" s="3" customFormat="1">
-      <c r="A31" s="3" t="s">
+      <c r="E30" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>60</v>
+      </c>
+      <c r="E31" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -1194,6 +1220,9 @@
       <c r="C32" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="E32" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -1205,16 +1234,22 @@
       <c r="C33" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" s="3" customFormat="1">
-      <c r="A34" s="3" t="s">
+      <c r="E33" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>60</v>
+      </c>
+      <c r="E34" s="2">
+        <v>34</v>
       </c>
     </row>
     <row r="35">
@@ -1227,6 +1262,9 @@
       <c r="C35" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="E35" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -1238,16 +1276,22 @@
       <c r="C36" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="37" s="3" customFormat="1">
-      <c r="A37" s="3" t="s">
+      <c r="E36" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>60</v>
+      </c>
+      <c r="E37" s="2">
+        <v>37</v>
       </c>
     </row>
     <row r="38">
@@ -1260,6 +1304,9 @@
       <c r="C38" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="E38" s="2">
+        <v>38</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
@@ -1271,16 +1318,22 @@
       <c r="C39" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="40" s="3" customFormat="1">
-      <c r="A40" s="3" t="s">
+      <c r="E39" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>80</v>
+      </c>
+      <c r="E40" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="41">
@@ -1293,6 +1346,9 @@
       <c r="C41" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="E41" s="2">
+        <v>41</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
@@ -1304,16 +1360,22 @@
       <c r="C42" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="43" s="3" customFormat="1">
-      <c r="A43" s="3" t="s">
+      <c r="E42" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>87</v>
+      </c>
+      <c r="E43" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="44">
@@ -1326,6 +1388,9 @@
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E44" s="2">
+        <v>44</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
@@ -1337,181 +1402,232 @@
       <c r="C45" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="46" s="3" customFormat="1">
-      <c r="A46" s="3" t="s">
+      <c r="E45" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="47" s="3" customFormat="1">
-      <c r="A47" s="3" t="s">
+      <c r="E46" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" s="3" customFormat="1">
-      <c r="A48" s="3" t="s">
+      <c r="E47" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" s="3" customFormat="1">
-      <c r="A49" s="3" t="s">
+      <c r="E48" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" s="3" customFormat="1">
-      <c r="A50" s="3" t="s">
+      <c r="E49" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="51" s="3" customFormat="1">
-      <c r="A51" s="3" t="s">
+      <c r="E50" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="52" s="3" customFormat="1">
-      <c r="A52" s="3" t="s">
+      <c r="E51" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="53" s="3" customFormat="1">
-      <c r="A53" s="3" t="s">
+      <c r="E52" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" s="3" customFormat="1">
-      <c r="A54" s="3" t="s">
+      <c r="E53" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="55" s="3" customFormat="1">
-      <c r="A55" s="3" t="s">
+      <c r="E54" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="56" s="3" customFormat="1">
-      <c r="A56" s="3" t="s">
+      <c r="E55" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="57" s="3" customFormat="1">
-      <c r="A57" s="3" t="s">
+      <c r="E56" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" s="3" customFormat="1">
-      <c r="A58" s="3" t="s">
+      <c r="E57" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" s="3" customFormat="1">
-      <c r="A59" s="3" t="s">
+      <c r="E58" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="60" s="3" customFormat="1">
-      <c r="A60" s="3" t="s">
+      <c r="E59" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="61" s="3" customFormat="1">
-      <c r="A61" s="3" t="s">
+      <c r="E60" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>110</v>
+      </c>
+      <c r="E61" s="2">
+        <v>61</v>
       </c>
     </row>
     <row r="62">
@@ -1524,20 +1640,27 @@
       <c r="C62" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="63" s="3" customFormat="1">
-      <c r="A63" s="3" t="s">
+      <c r="E62" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>110</v>
+      </c>
+      <c r="E63" s="2">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/CustomLocalization/Localization/RogueTech/RU/DarkAge HeavyMetal and Unique/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/DarkAge HeavyMetal and Unique/LocalizationDef.xlsx
@@ -26,7 +26,7 @@
   <si>
     <t xml:space="preserve">The Gùn is a moderately fast light OmniMech which was designed by the Capellan Confederation as an Infantry Support 'Mech. Rebuilding several 'liberated' chassis from border conflicts was this upgraded with a more formidable engine and Stealth systems to infiltrate deep into capellan Territory.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Short&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.02&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.02&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_gun_GN-2OR.StockRole</t>
@@ -51,7 +51,7 @@
   <si>
     <t xml:space="preserve">Malvina Hazen was part of the group assigned to designing the Jadehawk, while the Khan was a galaxy commander one she shared an especially close bond with Khan Hazen. This mech was her last gift to her brother.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Distracting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.23&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.23&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_hazen_JHK-HZN.StockRole</t>
@@ -79,7 +79,7 @@
   <si>
     <t xml:space="preserve">A custom made adaptation of the JHK-03 ordered by Celina Santos. It replaces the the SRM-6s with an Advanced Tactical Missile System and an LB-X Autocannon/5. It was the first Jade Hawk to become (in)famous in the Inner Sphere.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Distracting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.22&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.22&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_jade_hawk_JHK-03_Milagro.StockRole</t>
@@ -101,7 +101,7 @@
   <si>
     <t xml:space="preserve">Used by Republic of the Sphere Knight Eve Kincaid during the invasion of Liao in 3134, this Mad Cat III was equipped with an Extended-range PPC and two ER Medium Lasers controlled by a Targeting Computer. The Missile Launchers were downgraded to LRM-10 racks, but augmented with Artemis IV FCS.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_mad_cat_iii_eve.StockRole</t>
@@ -129,7 +129,7 @@
   <si>
     <t xml:space="preserve">This variant of the Omen was introduced during the Dark Age in 3141. It carries the LB 10-X and AMS of the original design, but only carries one Medium Pulse Laser and one ER Medium Laser. The ATM-12 has been downrated to an ATM-9 with two tons of ammunition, and three heat sinks were removed. With the weight saved by removing these weapons and equipment, engineers added a HarJel III system to each torso.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Protected Actuators&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.21&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.21&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_omen_OM-2.StockRole</t>
@@ -154,7 +154,7 @@
   <si>
     <t xml:space="preserve">This model is produced by both Oriente Weapon Works and Kallon Industries using the latest innovations to move the Rifleman towards a more prominent role again. Compared to its brother design, the RFL-7N2, the RFL-7N focuses more on direct energy weapons over ballistics. This model is produced by both Oriente Weapon Works and Kallon Industries, although not in as great numbers as the -7N2.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rifleman_RFL-7N.StockRole</t>
@@ -182,7 +182,7 @@
   <si>
     <t xml:space="preserve">A collaboration between Oriente Weapon Works and Kallon of Talon, the RFL-7N2 carries two LB/X 10 Autocannons, 2 Light PPCs and 2 ER Medium Lasers. To fit the weaponary the 'Mech uses a 240 XL engin, but does come with CASE II to protect the volatile ammunition bins.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.08&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rifleman_RFL-7N2.StockRole</t>
@@ -204,7 +204,7 @@
   <si>
     <t xml:space="preserve">The Rifleman C 3 are completely constructed from scratch, unlike the Rifleman C retrofit of the RFL-3N, which pair integrated cutting-edge technology with classic styling. With its dual Ultra AC5 and twin Extended-Range Large Lasers main armament, the C 3 is perfect for garrisoning duties. The combination of Ferro-Fibrous armor with CASE II and Endo Steel structure also allows adding two Extended-Range Medium Lasers for close range protection and a total of 14 heatsinks.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_rifleman_RFL-C3.StockRole</t>
@@ -232,7 +232,7 @@
   <si>
     <t xml:space="preserve">With the success of the latest generation of Mad Cats and Vultures, it’s only logical that other beloved OmniMechs get their due. Dubbed the Ryoken III, this beast seems an odd choice for the Wolves over one of their homegrown designs, and suggests a possible Snow Raven link.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_skinwalker_RIII-XP.StockRole</t>
@@ -296,7 +296,7 @@
   <si>
     <t xml:space="preserve">With only a pair of Thunderbolt-5 launchers and a retractable blade for weapons, “Aladdin” isn’t a flashy fighter. Its Angel ECM and stealth armor give it the ability to hide in built up terrain, and thus surprise strikes are its best hope.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.02&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.02&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_vulcan_VL-VT-5ML.StockRole</t>
@@ -321,7 +321,7 @@
   <si>
     <t xml:space="preserve">Using space savings of the XL Engine and strength of its endo-steel construction, the Warwolf is able to carry 30 tons worth of Omni pod weapons and equipment.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Medium&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.12&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_warwolf_WW1-PRIME.StockRole</t>
@@ -343,7 +343,7 @@
   <si>
     <t xml:space="preserve">The Gùn is a moderately fast light OmniMech which was designed by the Capellan Confederation as an Infantry Support 'Mech. Designed with 10 tons of pod space, the default configuration of the Gùn features a combination of anti-infantry and anti-vehicle energy weaponry. The 'Mech also features a Small Cockpit and an XL Gyro.
 &lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Short&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.02&lt;/color&gt;&lt;/b&gt;</t>
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.02&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_hazen_JHK-HZN.Description.Details</t>
@@ -465,7 +465,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -767,13 +768,14 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="66.140625" customWidth="1" style="2"/>
-    <col min="4" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
+    <col min="5" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -783,7 +785,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2">
@@ -797,7 +799,7 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2">
@@ -811,7 +813,7 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2">
@@ -825,7 +827,7 @@
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2">
@@ -839,7 +841,7 @@
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="2">
@@ -853,7 +855,7 @@
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2">
@@ -867,7 +869,7 @@
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="2">
@@ -881,7 +883,7 @@
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2">
@@ -895,7 +897,7 @@
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="2">
@@ -909,7 +911,7 @@
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="2">
@@ -923,7 +925,7 @@
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="2">
@@ -937,7 +939,7 @@
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="2">
@@ -951,7 +953,7 @@
       <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="2">
@@ -965,7 +967,7 @@
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="2">
@@ -979,7 +981,7 @@
       <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="2">
@@ -993,7 +995,7 @@
       <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="2">
@@ -1007,7 +1009,7 @@
       <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="2">
@@ -1021,7 +1023,7 @@
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="2">
@@ -1035,7 +1037,7 @@
       <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="2">
@@ -1049,7 +1051,7 @@
       <c r="B20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="2">
@@ -1063,7 +1065,7 @@
       <c r="B21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E21" s="2">
@@ -1077,7 +1079,7 @@
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E22" s="2">
@@ -1091,7 +1093,7 @@
       <c r="B23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E23" s="2">
@@ -1105,7 +1107,7 @@
       <c r="B24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E24" s="2">
@@ -1119,7 +1121,7 @@
       <c r="B25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="2">
@@ -1133,7 +1135,7 @@
       <c r="B26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E26" s="2">
@@ -1147,7 +1149,7 @@
       <c r="B27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E27" s="2">
@@ -1161,7 +1163,7 @@
       <c r="B28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E28" s="2">
@@ -1175,7 +1177,7 @@
       <c r="B29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E29" s="2">
@@ -1189,7 +1191,7 @@
       <c r="B30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E30" s="2">
@@ -1203,7 +1205,7 @@
       <c r="B31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E31" s="2">
@@ -1217,7 +1219,7 @@
       <c r="B32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E32" s="2">
@@ -1231,7 +1233,7 @@
       <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E33" s="2">
@@ -1245,7 +1247,7 @@
       <c r="B34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E34" s="2">
@@ -1259,7 +1261,7 @@
       <c r="B35" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E35" s="2">
@@ -1273,7 +1275,7 @@
       <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E36" s="2">
@@ -1287,7 +1289,7 @@
       <c r="B37" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E37" s="2">
@@ -1301,7 +1303,7 @@
       <c r="B38" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E38" s="2">
@@ -1315,7 +1317,7 @@
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E39" s="2">
@@ -1329,7 +1331,7 @@
       <c r="B40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E40" s="2">
@@ -1343,7 +1345,7 @@
       <c r="B41" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E41" s="2">
@@ -1357,7 +1359,7 @@
       <c r="B42" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E42" s="2">
@@ -1371,7 +1373,7 @@
       <c r="B43" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E43" s="2">
@@ -1385,7 +1387,7 @@
       <c r="B44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E44" s="2">
@@ -1399,7 +1401,7 @@
       <c r="B45" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E45" s="2">
@@ -1413,7 +1415,7 @@
       <c r="B46" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E46" s="2">
@@ -1427,7 +1429,7 @@
       <c r="B47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="2">
@@ -1441,7 +1443,7 @@
       <c r="B48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E48" s="2">
@@ -1455,7 +1457,7 @@
       <c r="B49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E49" s="2">
@@ -1469,7 +1471,7 @@
       <c r="B50" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E50" s="2">
@@ -1483,7 +1485,7 @@
       <c r="B51" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E51" s="2">
@@ -1497,7 +1499,7 @@
       <c r="B52" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E52" s="2">
@@ -1511,7 +1513,7 @@
       <c r="B53" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E53" s="2">
@@ -1525,7 +1527,7 @@
       <c r="B54" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E54" s="2">
@@ -1539,7 +1541,7 @@
       <c r="B55" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E55" s="2">
@@ -1553,7 +1555,7 @@
       <c r="B56" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E56" s="2">
@@ -1567,7 +1569,7 @@
       <c r="B57" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E57" s="2">
@@ -1581,7 +1583,7 @@
       <c r="B58" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E58" s="2">
@@ -1595,7 +1597,7 @@
       <c r="B59" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E59" s="2">
@@ -1609,7 +1611,7 @@
       <c r="B60" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E60" s="2">
@@ -1623,7 +1625,7 @@
       <c r="B61" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E61" s="2">
@@ -1637,7 +1639,7 @@
       <c r="B62" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="4" t="s">
         <v>113</v>
       </c>
       <c r="E62" s="2">
@@ -1651,7 +1653,7 @@
       <c r="B63" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E63" s="2">

--- a/CustomLocalization/Localization/RogueTech/RU/DarkAge HeavyMetal and Unique/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/DarkAge HeavyMetal and Unique/LocalizationDef.xlsx
@@ -231,7 +231,7 @@
   </si>
   <si>
     <t xml:space="preserve">With the success of the latest generation of Mad Cats and Vultures, it’s only logical that other beloved OmniMechs get their due. Dubbed the Ryoken III, this beast seems an odd choice for the Wolves over one of their homegrown designs, and suggests a possible Snow Raven link.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устойчивый&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -408,18 +408,18 @@
   </si>
   <si>
     <t xml:space="preserve">The Pollux ADA Heavy Tank was a dedicated anti-aircraft artillery vehicle designed to serve as a component of the Terran Hegemony's planetary defense forces. Armed with a Sniper Artillery Piece and a LB 10-X Autocannon, the Pollux carried 3 tons of ammunition for each weapon.A turret mounted Medium Laser and forward facing Small Pulse Laser gave the tank some token means of close-in self-defense. Also protecting the tank is 6 tons of Ferro-Fibrous armor giving its hull modest strength ward off light attacks as its escorts take out would be attackers. Powering the vehicle is a GM 225-rated standard Fusion Engine, giving the vehicle modest speeds to keep with typical vehicle formation and heavy 'Mechs
-&lt;b&gt;&lt;color=#ffcc00&gt;Tracked: High traction, agile turning.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Fusion: Expensive engine that works in a Vacuum.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#ffcc00&gt;Movement: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;Armor:&lt;/b&gt; Ferro-Fibrous
-&lt;b&gt;Structure:&lt;/b&gt; Structure
-&lt;b&gt;Values A S &lt;/b&gt;
-&lt;b&gt;Front&lt;/b&gt; 170 40
-&lt;b&gt;Left&lt;/b&gt; 132 40
-&lt;b&gt;Right&lt;/b&gt; 132 40
-&lt;b&gt;Rear&lt;/b&gt; 116 40
-&lt;b&gt;Turret&lt;/b&gt; 165 40
-&lt;b&gt;Total&lt;/b&gt; 715 200</t>
+&lt;b&gt;&lt;color=#ffcc00&gt;Гусеничная платформа: хорошее сцепление, резкий поворот.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Термоядерный двигатель: дорогой двигатель, работающий в вакууме.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#ffcc00&gt;Передвижение: 3/5 Hex: 90/150 Meters.&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;Броня:&lt;/b&gt; Ferro-Fibrous
+&lt;b&gt;Структура:&lt;/b&gt; Structure
+&lt;b&gt;Значения Б С &lt;/b&gt;
+&lt;b&gt;Передняя&lt;/b&gt; 170 40
+&lt;b&gt;Левая&lt;/b&gt; 132 40
+&lt;b&gt;Правая&lt;/b&gt; 132 40
+&lt;b&gt;Задняя&lt;/b&gt; 116 40
+&lt;b&gt;Башня&lt;/b&gt; 165 40
+&lt;b&gt;Итого&lt;/b&gt; 715 200</t>
   </si>
   <si>
     <t>vehiclechassisdef_POLLUX_II_ADA.YangsThoughts</t>
@@ -767,15 +767,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="66.140625" customWidth="1" style="2"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
-    <col min="5" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="5" width="9.140625" customWidth="1" style="2"/>
+    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
